--- a/jcinema/WebContent/erd/jcinema데이터파일.xlsx
+++ b/jcinema/WebContent/erd/jcinema데이터파일.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="1110" windowWidth="13995" windowHeight="7605" activeTab="4"/>
+    <workbookView xWindow="435" yWindow="1110" windowWidth="13995" windowHeight="7605" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="영화정보" sheetId="27" r:id="rId1"/>
     <sheet name="영화관" sheetId="28" r:id="rId2"/>
     <sheet name="상영관" sheetId="29" r:id="rId3"/>
     <sheet name="좌석" sheetId="30" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="31" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="89">
   <si>
     <t>조커</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,30 +393,6 @@
     <t>아르떼클래식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>상영관 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영시작시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영종료시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영회차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -462,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,9 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1862,7 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1981"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
@@ -35552,2464 +35524,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="7" width="12.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>103</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>103</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>103</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>103</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>103</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>103</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>103</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>103</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>103</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>103</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>103</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>103</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>103</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>103</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>103</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>103</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>103</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>103</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>103</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>103</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>103</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>103</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>103</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>103</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>103</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>103</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>103</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>103</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>103</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>103</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>103</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>103</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>103</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>103</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>103</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1">
-        <v>43820</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>103</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>103</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>103</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>103</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>103</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>103</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>103</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>103</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>103</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>103</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>103</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>103</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>103</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>103</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>103</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>103</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>103</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>103</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>103</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>103</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>103</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>103</v>
-      </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>103</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>103</v>
-      </c>
-      <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>103</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>103</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>103</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>103</v>
-      </c>
-      <c r="B64">
-        <v>4</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>103</v>
-      </c>
-      <c r="B65">
-        <v>5</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>103</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>103</v>
-      </c>
-      <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>103</v>
-      </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>103</v>
-      </c>
-      <c r="B69">
-        <v>5</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>103</v>
-      </c>
-      <c r="B70">
-        <v>5</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G70">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>103</v>
-      </c>
-      <c r="B71">
-        <v>5</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="D71" s="1">
-        <v>43821</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>103</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>103</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>103</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>103</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>103</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>103</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>103</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>103</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>103</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>103</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>103</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E82" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>103</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>103</v>
-      </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G84">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>103</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>103</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>103</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E87" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>103</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E88" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F88" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>103</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>103</v>
-      </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E90" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>103</v>
-      </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>103</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E92" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>103</v>
-      </c>
-      <c r="B93">
-        <v>4</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E93" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>103</v>
-      </c>
-      <c r="B94">
-        <v>4</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="D94" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>103</v>
-      </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E95" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F95" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>103</v>
-      </c>
-      <c r="B96">
-        <v>4</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E96" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>103</v>
-      </c>
-      <c r="B97">
-        <v>4</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E97" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F97" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>103</v>
-      </c>
-      <c r="B98">
-        <v>4</v>
-      </c>
-      <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E98" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>103</v>
-      </c>
-      <c r="B99">
-        <v>4</v>
-      </c>
-      <c r="C99">
-        <v>2</v>
-      </c>
-      <c r="D99" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E99" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F99" s="3">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>103</v>
-      </c>
-      <c r="B100">
-        <v>5</v>
-      </c>
-      <c r="C100">
-        <v>3</v>
-      </c>
-      <c r="D100" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>103</v>
-      </c>
-      <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="G101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>103</v>
-      </c>
-      <c r="B102">
-        <v>5</v>
-      </c>
-      <c r="C102">
-        <v>3</v>
-      </c>
-      <c r="D102" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="G102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>103</v>
-      </c>
-      <c r="B103">
-        <v>5</v>
-      </c>
-      <c r="C103">
-        <v>3</v>
-      </c>
-      <c r="D103" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E103" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F103" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="G103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>5</v>
-      </c>
-      <c r="C104">
-        <v>3</v>
-      </c>
-      <c r="D104" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E104" s="3">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="G104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>5</v>
-      </c>
-      <c r="C105">
-        <v>3</v>
-      </c>
-      <c r="D105" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E105" s="3">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="F105" s="3">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="G105">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>103</v>
-      </c>
-      <c r="B106">
-        <v>5</v>
-      </c>
-      <c r="C106">
-        <v>3</v>
-      </c>
-      <c r="D106" s="1">
-        <v>43822</v>
-      </c>
-      <c r="E106" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F106" s="3">
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D107" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>